--- a/Docs/ISIS1225 - Tablas de Datos Lab 5.xlsx
+++ b/Docs/ISIS1225 - Tablas de Datos Lab 5.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10511"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Lina/Library/Mobile Documents/com~apple~CloudDocs/Universidad/EDA/ISIS1225-Laboratorio-5/Docs/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jscha\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{956D6578-0A0A-6148-A156-5D7CA8FF2F1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9BDE6D3A-B522-4452-BDD9-158704738CC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17580" xr2:uid="{D82936D8-D2C9-4EB2-9CBC-3665F65B95FD}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{D82936D8-D2C9-4EB2-9CBC-3665F65B95FD}"/>
   </bookViews>
   <sheets>
     <sheet name="01-Data" sheetId="1" r:id="rId1"/>
@@ -58,9 +58,6 @@
     <t xml:space="preserve">Algoritmo iterativo (especificar) </t>
   </si>
   <si>
-    <t>Algoritmo recursivo (especificar)</t>
-  </si>
-  <si>
     <t>TIEMPOS DE EJECUCIÓN MEJORES ALGORITMOS [ms]</t>
   </si>
   <si>
@@ -101,6 +98,9 @@
   </si>
   <si>
     <t xml:space="preserve">TIEMPOS DE EJECUCIÓN SINGLE LINKED LIST [ms] </t>
+  </si>
+  <si>
+    <t>Algoritmo recursivo (Merge)</t>
   </si>
 </sst>
 </file>
@@ -465,6 +465,85 @@
     </dxf>
     <dxf>
       <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Dax-Regular"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Dax-Regular"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Dax-Regular"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
         <b/>
         <i val="0"/>
         <strike val="0"/>
@@ -580,85 +659,6 @@
         <scheme val="none"/>
       </font>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Dax-Regular"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Dax-Regular"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-        <top style="medium">
-          <color indexed="64"/>
-        </top>
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Dax-Regular"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -1055,7 +1055,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="es-ES"/>
+  <c:lang val="es-MX"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1209,6 +1209,30 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0.16500000000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>11.563000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>39.976999999999997</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>115.05</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>270.93200000000002</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>843.94</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2284.42</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3916.761</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -1296,6 +1320,30 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0.47299999999999998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>22.42</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>48.314999999999998</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>191.69800000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>419.80500000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1308.855</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3816.422</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6627.7669999999998</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -1383,6 +1431,30 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0.13900000000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.1560000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.024</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>12.455</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>27.542000000000002</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>65.188000000000002</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>117.455</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>209.26400000000001</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -1470,6 +1542,30 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0.41299999999999998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.2619999999999996</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10.239000000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>22.629000000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>33.612000000000002</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>42.68</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>77.165999999999997</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>91.197999999999993</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -1557,6 +1653,30 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0.36099999999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.9349999999999996</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>14.635</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>22.097999999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>49.688000000000002</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>96.504000000000005</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>180.45699999999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>266.66899999999998</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -1857,6 +1977,7 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -1864,7 +1985,6 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -1897,7 +2017,7 @@
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="es-ES"/>
+  <c:lang val="es-MX"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -2051,6 +2171,30 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>7.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.0000000000000001E-3</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -2138,6 +2282,30 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>7.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5.0000000000000001E-3</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -2700,6 +2868,7 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -2707,7 +2876,6 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -2740,7 +2908,7 @@
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="es-ES"/>
+  <c:lang val="es-MX"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -2894,6 +3062,30 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0.16500000000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>11.563000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>39.976999999999997</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>115.05</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>270.93200000000002</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>843.94</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2284.42</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3916.761</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -2981,6 +3173,30 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>7.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.0000000000000001E-3</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -3282,6 +3498,7 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -3289,7 +3506,6 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -3322,7 +3538,7 @@
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="es-ES"/>
+  <c:lang val="es-MX"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -3476,6 +3692,30 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0.47299999999999998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>22.42</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>48.314999999999998</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>191.69800000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>419.80500000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1308.855</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3816.422</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6627.7669999999998</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -3563,6 +3803,30 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>7.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5.0000000000000001E-3</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -3864,6 +4128,7 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -3871,7 +4136,6 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -3904,7 +4168,7 @@
 <file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="es-ES"/>
+  <c:lang val="es-MX"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -4058,6 +4322,30 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0.13900000000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.1560000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.024</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>12.455</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>27.542000000000002</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>65.188000000000002</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>117.455</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>209.26400000000001</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -4446,6 +4734,7 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -4453,7 +4742,6 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -4486,7 +4774,7 @@
 <file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="es-ES"/>
+  <c:lang val="es-MX"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -4640,6 +4928,30 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0.41299999999999998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.2619999999999996</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10.239000000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>22.629000000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>33.612000000000002</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>42.68</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>77.165999999999997</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>91.197999999999993</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -5028,6 +5340,7 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -5035,7 +5348,6 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -5068,7 +5380,7 @@
 <file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="es-ES"/>
+  <c:lang val="es-MX"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -5217,6 +5529,30 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0.36099999999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.9349999999999996</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>14.635</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>22.097999999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>49.688000000000002</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>96.504000000000005</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>180.45699999999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>266.66899999999998</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -5605,6 +5941,7 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -5612,7 +5949,6 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -5645,7 +5981,7 @@
 <file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="es-ES"/>
+  <c:lang val="es-MX"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -5799,6 +6135,30 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0.13100000000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.1560000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.024</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>12.455</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>27.542000000000002</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>65.188000000000002</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>117.455</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>209.26400000000001</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -5818,7 +6178,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Algoritmo recursivo (especificar)</c:v>
+                  <c:v>Algoritmo recursivo (Merge)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -5886,6 +6246,30 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0.41299999999999998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.2619999999999996</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10.239000000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>22.629000000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>33.612000000000002</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>42.68</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>77.165999999999997</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>91.197999999999993</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -6187,6 +6571,7 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -6194,7 +6579,6 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -11082,18 +11466,18 @@
     <tableColumn id="2" xr3:uid="{4F9B7329-040C-4D35-96E7-B9181424DC65}" name="Tamaño de la muestra (LINKED_LIST)" dataDxfId="12">
       <calculatedColumnFormula>Table13[[#This Row],[Porcentaje de la muestra '[pct']]]*10000</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{BDA028DF-4CED-4928-B040-96AD8F8A43EB}" name="Insertion Sort Linked List" dataDxfId="6"/>
-    <tableColumn id="4" xr3:uid="{A5E99D51-DD73-48A7-AE0D-601A8EE89AFA}" name="Selection Sort Linked List" dataDxfId="5"/>
-    <tableColumn id="5" xr3:uid="{A2E3ADDC-6DD2-4948-B1D7-3CE7770DFC65}" name="Shell Sort Linked List" dataDxfId="4"/>
-    <tableColumn id="6" xr3:uid="{CE9F6C54-1CFA-E54C-8FB6-7838A5EDD8A3}" name="Merge Sort Linked List" dataDxfId="3"/>
-    <tableColumn id="7" xr3:uid="{B636EE2A-F13E-2342-B329-EE5C61F78A76}" name="Quick Sort Linked List" dataDxfId="2"/>
+    <tableColumn id="3" xr3:uid="{BDA028DF-4CED-4928-B040-96AD8F8A43EB}" name="Insertion Sort Linked List" dataDxfId="11"/>
+    <tableColumn id="4" xr3:uid="{A5E99D51-DD73-48A7-AE0D-601A8EE89AFA}" name="Selection Sort Linked List" dataDxfId="10"/>
+    <tableColumn id="5" xr3:uid="{A2E3ADDC-6DD2-4948-B1D7-3CE7770DFC65}" name="Shell Sort Linked List" dataDxfId="9"/>
+    <tableColumn id="6" xr3:uid="{CE9F6C54-1CFA-E54C-8FB6-7838A5EDD8A3}" name="Merge Sort Linked List" dataDxfId="8"/>
+    <tableColumn id="7" xr3:uid="{B636EE2A-F13E-2342-B329-EE5C61F78A76}" name="Quick Sort Linked List" dataDxfId="7"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{4009FC45-711A-7E4A-BD3C-BEB6C9914449}" name="Tabla3" displayName="Tabla3" ref="A24:D32" totalsRowShown="0" headerRowDxfId="11" headerRowBorderDxfId="10" tableBorderDxfId="9">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{4009FC45-711A-7E4A-BD3C-BEB6C9914449}" name="Tabla3" displayName="Tabla3" ref="A24:D32" totalsRowShown="0" headerRowDxfId="6" headerRowBorderDxfId="5" tableBorderDxfId="4">
   <autoFilter ref="A24:D32" xr:uid="{4009FC45-711A-7E4A-BD3C-BEB6C9914449}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -11101,12 +11485,12 @@
     <filterColumn colId="3" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{B41C1FDF-31EB-8245-9B27-55998E13A758}" name="Porcentaje de la muestra [pct]" dataDxfId="8"/>
-    <tableColumn id="2" xr3:uid="{A5516E25-E137-844A-8ACE-E872C6D3AF26}" name="Tamaño de la muestra " dataDxfId="7">
+    <tableColumn id="1" xr3:uid="{B41C1FDF-31EB-8245-9B27-55998E13A758}" name="Porcentaje de la muestra [pct]" dataDxfId="3"/>
+    <tableColumn id="2" xr3:uid="{A5516E25-E137-844A-8ACE-E872C6D3AF26}" name="Tamaño de la muestra " dataDxfId="2">
       <calculatedColumnFormula>Tabla3[[#This Row],[Porcentaje de la muestra '[pct']]] *10000</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="3" xr3:uid="{FCABA3BF-6045-0E48-BB37-6E396D6328EB}" name="Algoritmo iterativo (especificar) " dataDxfId="1"/>
-    <tableColumn id="4" xr3:uid="{D7C2D6B9-4643-7546-86E6-D34E7A0D57D5}" name="Algoritmo recursivo (especificar)" dataDxfId="0"/>
+    <tableColumn id="4" xr3:uid="{D7C2D6B9-4643-7546-86E6-D34E7A0D57D5}" name="Algoritmo recursivo (Merge)" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -11415,22 +11799,22 @@
   <dimension ref="A1:H32"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="113" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10:F10"/>
+      <selection activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.77734375" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="28.83203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="45.5" style="1" customWidth="1"/>
+    <col min="1" max="1" width="28.77734375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="45.44140625" style="1" customWidth="1"/>
     <col min="3" max="3" width="30.6640625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="31.1640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="24.5" style="3" customWidth="1"/>
-    <col min="6" max="11" width="24.5" customWidth="1"/>
+    <col min="4" max="4" width="31.109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="24.44140625" style="3" customWidth="1"/>
+    <col min="6" max="11" width="24.44140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="14.25" customHeight="1">
       <c r="A1" s="34" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B1" s="35"/>
       <c r="C1" s="35"/>
@@ -11439,7 +11823,7 @@
       <c r="F1" s="35"/>
       <c r="G1" s="35"/>
     </row>
-    <row r="2" spans="1:8" s="2" customFormat="1" ht="17" thickBot="1">
+    <row r="2" spans="1:8" s="2" customFormat="1" ht="28.2" thickBot="1">
       <c r="A2" s="6" t="s">
         <v>0</v>
       </c>
@@ -11447,22 +11831,22 @@
         <v>1</v>
       </c>
       <c r="C2" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="E2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="F2" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="G2" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="G2" s="13" t="s">
-        <v>11</v>
-      </c>
     </row>
-    <row r="3" spans="1:8" s="2" customFormat="1">
+    <row r="3" spans="1:8" s="2" customFormat="1" ht="13.8">
       <c r="A3" s="26">
         <v>5.0000000000000001E-3</v>
       </c>
@@ -11470,13 +11854,23 @@
         <f>Table1[[#This Row],[Porcentaje de la muestra '[pct']]]*10000</f>
         <v>50</v>
       </c>
-      <c r="C3" s="28"/>
-      <c r="D3" s="28"/>
-      <c r="E3" s="29"/>
-      <c r="F3" s="29"/>
-      <c r="G3" s="23"/>
+      <c r="C3" s="28">
+        <v>0.16500000000000001</v>
+      </c>
+      <c r="D3" s="28">
+        <v>0.47299999999999998</v>
+      </c>
+      <c r="E3" s="29">
+        <v>0.13900000000000001</v>
+      </c>
+      <c r="F3" s="29">
+        <v>0.41299999999999998</v>
+      </c>
+      <c r="G3" s="23">
+        <v>0.36099999999999999</v>
+      </c>
     </row>
-    <row r="4" spans="1:8" s="2" customFormat="1">
+    <row r="4" spans="1:8" s="2" customFormat="1" ht="13.8">
       <c r="A4" s="7">
         <v>0.05</v>
       </c>
@@ -11484,11 +11878,21 @@
         <f>Table1[[#This Row],[Porcentaje de la muestra '[pct']]]*10000</f>
         <v>500</v>
       </c>
-      <c r="C4" s="22"/>
-      <c r="D4" s="22"/>
-      <c r="E4" s="20"/>
-      <c r="F4" s="20"/>
-      <c r="G4" s="13"/>
+      <c r="C4" s="22">
+        <v>11.563000000000001</v>
+      </c>
+      <c r="D4" s="22">
+        <v>22.42</v>
+      </c>
+      <c r="E4" s="20">
+        <v>2.1560000000000001</v>
+      </c>
+      <c r="F4" s="20">
+        <v>5.2619999999999996</v>
+      </c>
+      <c r="G4" s="13">
+        <v>4.9349999999999996</v>
+      </c>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="7">
@@ -11498,11 +11902,21 @@
         <f>Table1[[#This Row],[Porcentaje de la muestra '[pct']]]*10000</f>
         <v>1000</v>
       </c>
-      <c r="C5" s="22"/>
-      <c r="D5" s="22"/>
-      <c r="E5" s="20"/>
-      <c r="F5" s="20"/>
-      <c r="G5" s="13"/>
+      <c r="C5" s="22">
+        <v>39.976999999999997</v>
+      </c>
+      <c r="D5" s="22">
+        <v>48.314999999999998</v>
+      </c>
+      <c r="E5" s="20">
+        <v>6.024</v>
+      </c>
+      <c r="F5" s="20">
+        <v>10.239000000000001</v>
+      </c>
+      <c r="G5" s="13">
+        <v>14.635</v>
+      </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="7">
@@ -11512,11 +11926,21 @@
         <f>Table1[[#This Row],[Porcentaje de la muestra '[pct']]]*10000</f>
         <v>2000</v>
       </c>
-      <c r="C6" s="22"/>
-      <c r="D6" s="22"/>
-      <c r="E6" s="20"/>
-      <c r="F6" s="20"/>
-      <c r="G6" s="13"/>
+      <c r="C6" s="22">
+        <v>115.05</v>
+      </c>
+      <c r="D6" s="22">
+        <v>191.69800000000001</v>
+      </c>
+      <c r="E6" s="20">
+        <v>12.455</v>
+      </c>
+      <c r="F6" s="20">
+        <v>22.629000000000001</v>
+      </c>
+      <c r="G6" s="13">
+        <v>22.097999999999999</v>
+      </c>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="7">
@@ -11526,11 +11950,21 @@
         <f>Table1[[#This Row],[Porcentaje de la muestra '[pct']]]*10000</f>
         <v>3000</v>
       </c>
-      <c r="C7" s="22"/>
-      <c r="D7" s="22"/>
-      <c r="E7" s="20"/>
-      <c r="F7" s="20"/>
-      <c r="G7" s="13"/>
+      <c r="C7" s="22">
+        <v>270.93200000000002</v>
+      </c>
+      <c r="D7" s="22">
+        <v>419.80500000000001</v>
+      </c>
+      <c r="E7" s="20">
+        <v>27.542000000000002</v>
+      </c>
+      <c r="F7" s="20">
+        <v>33.612000000000002</v>
+      </c>
+      <c r="G7" s="13">
+        <v>49.688000000000002</v>
+      </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="7">
@@ -11540,11 +11974,21 @@
         <f>Table1[[#This Row],[Porcentaje de la muestra '[pct']]]*10000</f>
         <v>5000</v>
       </c>
-      <c r="C8" s="22"/>
-      <c r="D8" s="22"/>
-      <c r="E8" s="20"/>
-      <c r="F8" s="20"/>
-      <c r="G8" s="13"/>
+      <c r="C8" s="22">
+        <v>843.94</v>
+      </c>
+      <c r="D8" s="22">
+        <v>1308.855</v>
+      </c>
+      <c r="E8" s="20">
+        <v>65.188000000000002</v>
+      </c>
+      <c r="F8" s="20">
+        <v>42.68</v>
+      </c>
+      <c r="G8" s="13">
+        <v>96.504000000000005</v>
+      </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="7">
@@ -11554,13 +11998,23 @@
         <f>Table1[[#This Row],[Porcentaje de la muestra '[pct']]]*10000</f>
         <v>8000</v>
       </c>
-      <c r="C9" s="22"/>
-      <c r="D9" s="22"/>
-      <c r="E9" s="20"/>
-      <c r="F9" s="20"/>
-      <c r="G9" s="13"/>
+      <c r="C9" s="22">
+        <v>2284.42</v>
+      </c>
+      <c r="D9" s="22">
+        <v>3816.422</v>
+      </c>
+      <c r="E9" s="20">
+        <v>117.455</v>
+      </c>
+      <c r="F9" s="20">
+        <v>77.165999999999997</v>
+      </c>
+      <c r="G9" s="13">
+        <v>180.45699999999999</v>
+      </c>
     </row>
-    <row r="10" spans="1:8" ht="16" thickBot="1">
+    <row r="10" spans="1:8" ht="15" thickBot="1">
       <c r="A10" s="9">
         <v>1</v>
       </c>
@@ -11568,18 +12022,28 @@
         <f>Table1[[#This Row],[Porcentaje de la muestra '[pct']]]*10000</f>
         <v>10000</v>
       </c>
-      <c r="C10" s="24"/>
-      <c r="D10" s="24"/>
-      <c r="E10" s="25"/>
-      <c r="F10" s="25"/>
-      <c r="G10" s="14"/>
+      <c r="C10" s="24">
+        <v>3916.761</v>
+      </c>
+      <c r="D10" s="24">
+        <v>6627.7669999999998</v>
+      </c>
+      <c r="E10" s="25">
+        <v>209.26400000000001</v>
+      </c>
+      <c r="F10" s="25">
+        <v>91.197999999999993</v>
+      </c>
+      <c r="G10" s="14">
+        <v>266.66899999999998</v>
+      </c>
     </row>
     <row r="11" spans="1:8">
       <c r="E11"/>
     </row>
     <row r="12" spans="1:8" ht="14.25" customHeight="1" thickBot="1">
       <c r="A12" s="36" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B12" s="37"/>
       <c r="C12" s="37"/>
@@ -11589,7 +12053,7 @@
       <c r="G12" s="37"/>
       <c r="H12" s="21"/>
     </row>
-    <row r="13" spans="1:8" s="2" customFormat="1" ht="17" thickBot="1">
+    <row r="13" spans="1:8" s="2" customFormat="1" ht="28.2" thickBot="1">
       <c r="A13" s="15" t="s">
         <v>0</v>
       </c>
@@ -11597,23 +12061,23 @@
         <v>2</v>
       </c>
       <c r="C13" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="D13" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="D13" s="16" t="s">
+      <c r="E13" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="E13" s="16" t="s">
+      <c r="F13" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="F13" s="16" t="s">
+      <c r="G13" s="30" t="s">
         <v>15</v>
-      </c>
-      <c r="G13" s="30" t="s">
-        <v>16</v>
       </c>
       <c r="H13" s="4"/>
     </row>
-    <row r="14" spans="1:8" s="2" customFormat="1">
+    <row r="14" spans="1:8" s="2" customFormat="1" ht="13.8">
       <c r="A14" s="7">
         <v>5.0000000000000001E-3</v>
       </c>
@@ -11621,14 +12085,18 @@
         <f>Table13[[#This Row],[Porcentaje de la muestra '[pct']]]*10000</f>
         <v>50</v>
       </c>
-      <c r="C14" s="22"/>
-      <c r="D14" s="22"/>
+      <c r="C14" s="22">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="D14" s="22">
+        <v>7.0000000000000001E-3</v>
+      </c>
       <c r="E14" s="22"/>
       <c r="F14" s="4"/>
       <c r="G14" s="13"/>
       <c r="H14" s="8"/>
     </row>
-    <row r="15" spans="1:8" s="2" customFormat="1">
+    <row r="15" spans="1:8" s="2" customFormat="1" ht="13.8">
       <c r="A15" s="7">
         <v>0.05</v>
       </c>
@@ -11636,8 +12104,12 @@
         <f>Table13[[#This Row],[Porcentaje de la muestra '[pct']]]*10000</f>
         <v>500</v>
       </c>
-      <c r="C15" s="22"/>
-      <c r="D15" s="22"/>
+      <c r="C15" s="22">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="D15" s="22">
+        <v>4.0000000000000001E-3</v>
+      </c>
       <c r="E15" s="22"/>
       <c r="F15" s="4"/>
       <c r="G15" s="13"/>
@@ -11651,8 +12123,12 @@
         <f>Table13[[#This Row],[Porcentaje de la muestra '[pct']]]*10000</f>
         <v>1000</v>
       </c>
-      <c r="C16" s="22"/>
-      <c r="D16" s="22"/>
+      <c r="C16" s="22">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="D16" s="22">
+        <v>6.0000000000000001E-3</v>
+      </c>
       <c r="E16" s="22"/>
       <c r="F16" s="4"/>
       <c r="G16" s="13"/>
@@ -11666,8 +12142,12 @@
         <f>Table13[[#This Row],[Porcentaje de la muestra '[pct']]]*10000</f>
         <v>2000</v>
       </c>
-      <c r="C17" s="22"/>
-      <c r="D17" s="22"/>
+      <c r="C17" s="22">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="D17" s="22">
+        <v>5.0000000000000001E-3</v>
+      </c>
       <c r="E17" s="22"/>
       <c r="F17" s="4"/>
       <c r="G17" s="13"/>
@@ -11681,8 +12161,12 @@
         <f>Table13[[#This Row],[Porcentaje de la muestra '[pct']]]*10000</f>
         <v>3000</v>
       </c>
-      <c r="C18" s="22"/>
-      <c r="D18" s="22"/>
+      <c r="C18" s="22">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="D18" s="22">
+        <v>4.0000000000000001E-3</v>
+      </c>
       <c r="E18" s="22"/>
       <c r="F18" s="4"/>
       <c r="G18" s="13"/>
@@ -11696,8 +12180,12 @@
         <f>Table13[[#This Row],[Porcentaje de la muestra '[pct']]]*10000</f>
         <v>5000</v>
       </c>
-      <c r="C19" s="22"/>
-      <c r="D19" s="22"/>
+      <c r="C19" s="22">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="D19" s="22">
+        <v>4.0000000000000001E-3</v>
+      </c>
       <c r="E19" s="22"/>
       <c r="F19" s="4"/>
       <c r="G19" s="13"/>
@@ -11711,14 +12199,18 @@
         <f>Table13[[#This Row],[Porcentaje de la muestra '[pct']]]*10000</f>
         <v>8000</v>
       </c>
-      <c r="C20" s="22"/>
-      <c r="D20" s="22"/>
+      <c r="C20" s="22">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="D20" s="22">
+        <v>4.0000000000000001E-3</v>
+      </c>
       <c r="E20" s="22"/>
       <c r="F20" s="4"/>
       <c r="G20" s="13"/>
       <c r="H20" s="8"/>
     </row>
-    <row r="21" spans="1:8" ht="16" thickBot="1">
+    <row r="21" spans="1:8" ht="15" thickBot="1">
       <c r="A21" s="9">
         <v>1</v>
       </c>
@@ -11726,17 +12218,21 @@
         <f>Table13[[#This Row],[Porcentaje de la muestra '[pct']]]*10000</f>
         <v>10000</v>
       </c>
-      <c r="C21" s="24"/>
-      <c r="D21" s="24"/>
+      <c r="C21" s="24">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="D21" s="24">
+        <v>5.0000000000000001E-3</v>
+      </c>
       <c r="E21" s="24"/>
       <c r="F21" s="11"/>
       <c r="G21" s="14"/>
       <c r="H21" s="8"/>
     </row>
-    <row r="22" spans="1:8" ht="16" thickBot="1"/>
+    <row r="22" spans="1:8" ht="15" thickBot="1"/>
     <row r="23" spans="1:8">
       <c r="A23" s="31" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B23" s="32"/>
       <c r="C23" s="32"/>
@@ -11747,13 +12243,13 @@
         <v>0</v>
       </c>
       <c r="B24" s="11" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C24" s="11" t="s">
         <v>3</v>
       </c>
       <c r="D24" s="11" t="s">
-        <v>4</v>
+        <v>18</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -11764,8 +12260,12 @@
         <f>Tabla3[[#This Row],[Porcentaje de la muestra '[pct']]] *10000</f>
         <v>50</v>
       </c>
-      <c r="C25" s="17"/>
-      <c r="D25" s="17"/>
+      <c r="C25" s="17">
+        <v>0.13100000000000001</v>
+      </c>
+      <c r="D25" s="17">
+        <v>0.41299999999999998</v>
+      </c>
     </row>
     <row r="26" spans="1:8">
       <c r="A26" s="19">
@@ -11775,8 +12275,12 @@
         <f>Tabla3[[#This Row],[Porcentaje de la muestra '[pct']]] *10000</f>
         <v>500</v>
       </c>
-      <c r="C26" s="4"/>
-      <c r="D26" s="4"/>
+      <c r="C26" s="4">
+        <v>2.1560000000000001</v>
+      </c>
+      <c r="D26" s="4">
+        <v>5.2619999999999996</v>
+      </c>
     </row>
     <row r="27" spans="1:8">
       <c r="A27" s="18">
@@ -11786,8 +12290,12 @@
         <f>Tabla3[[#This Row],[Porcentaje de la muestra '[pct']]] *10000</f>
         <v>1000</v>
       </c>
-      <c r="C27" s="17"/>
-      <c r="D27" s="17"/>
+      <c r="C27" s="17">
+        <v>6.024</v>
+      </c>
+      <c r="D27" s="17">
+        <v>10.239000000000001</v>
+      </c>
     </row>
     <row r="28" spans="1:8">
       <c r="A28" s="19">
@@ -11797,8 +12305,12 @@
         <f>Tabla3[[#This Row],[Porcentaje de la muestra '[pct']]] *10000</f>
         <v>2000</v>
       </c>
-      <c r="C28" s="4"/>
-      <c r="D28" s="4"/>
+      <c r="C28" s="4">
+        <v>12.455</v>
+      </c>
+      <c r="D28" s="4">
+        <v>22.629000000000001</v>
+      </c>
     </row>
     <row r="29" spans="1:8">
       <c r="A29" s="18">
@@ -11808,8 +12320,12 @@
         <f>Tabla3[[#This Row],[Porcentaje de la muestra '[pct']]] *10000</f>
         <v>3000</v>
       </c>
-      <c r="C29" s="17"/>
-      <c r="D29" s="17"/>
+      <c r="C29" s="17">
+        <v>27.542000000000002</v>
+      </c>
+      <c r="D29" s="17">
+        <v>33.612000000000002</v>
+      </c>
     </row>
     <row r="30" spans="1:8">
       <c r="A30" s="19">
@@ -11819,8 +12335,12 @@
         <f>Tabla3[[#This Row],[Porcentaje de la muestra '[pct']]] *10000</f>
         <v>5000</v>
       </c>
-      <c r="C30" s="4"/>
-      <c r="D30" s="4"/>
+      <c r="C30" s="4">
+        <v>65.188000000000002</v>
+      </c>
+      <c r="D30" s="4">
+        <v>42.68</v>
+      </c>
     </row>
     <row r="31" spans="1:8">
       <c r="A31" s="18">
@@ -11830,8 +12350,12 @@
         <f>Tabla3[[#This Row],[Porcentaje de la muestra '[pct']]] *10000</f>
         <v>8000</v>
       </c>
-      <c r="C31" s="17"/>
-      <c r="D31" s="17"/>
+      <c r="C31" s="17">
+        <v>117.455</v>
+      </c>
+      <c r="D31" s="17">
+        <v>77.165999999999997</v>
+      </c>
     </row>
     <row r="32" spans="1:8">
       <c r="A32" s="19">
@@ -11841,8 +12365,12 @@
         <f>Tabla3[[#This Row],[Porcentaje de la muestra '[pct']]] *10000</f>
         <v>10000</v>
       </c>
-      <c r="C32" s="4"/>
-      <c r="D32" s="4"/>
+      <c r="C32" s="4">
+        <v>209.26400000000001</v>
+      </c>
+      <c r="D32" s="4">
+        <v>91.197999999999993</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -11852,24 +12380,16 @@
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
   <tableParts count="3">
-    <tablePart r:id="rId1"/>
     <tablePart r:id="rId2"/>
     <tablePart r:id="rId3"/>
+    <tablePart r:id="rId4"/>
   </tableParts>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <SharedWithUsers xmlns="85e30bcc-d76c-4413-8e4d-2dce22fb0743">
@@ -11980,6 +12500,15 @@
     </lcf76f155ced4ddcb4097134ff3c332f>
   </documentManagement>
 </p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -12232,20 +12761,20 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F8DF3742-38F2-4B99-B335-CC4F04ED9F45}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{97C5E1E0-C817-4769-9D2D-1DC296B681FA}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <ds:schemaRef ds:uri="85e30bcc-d76c-4413-8e4d-2dce22fb0743"/>
     <ds:schemaRef ds:uri="164883f8-7691-4ecf-b54a-664c0d0edefe"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F8DF3742-38F2-4B99-B335-CC4F04ED9F45}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
